--- a/WieringermeerData_LeachateProduction.xlsx
+++ b/WieringermeerData_LeachateProduction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jlieftinck_tudelft_nl/Documents/TU Delft/Master/Q4/Modelling CP/Assignment 1/Ass1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jlieftinck_tudelft_nl/Documents/TU Delft/Master/Q4/Modelling CP/Assignment 1/Ass1/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="11_85A4FB9902574AB365607C93F35CC23390AA1985" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51BE5454-E58F-48DE-8FF2-63283AB61281}"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2758"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2748" workbookViewId="0">
+      <selection activeCell="G2758" sqref="G2758:G2759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
